--- a/data/Родер - КТК.xlsx
+++ b/data/Родер - КТК.xlsx
@@ -900,25 +900,32 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFDAE3F3"/>
+          <fgColor rgb="FFDAE3F3"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFE2F0D9"/>
+          <fgColor rgb="FFE2F0D9"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFEDEDED"/>
+          <fgColor rgb="FFEDEDED"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1008,20 +1015,20 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I69" activeCellId="0" sqref="I69"/>
+      <selection pane="bottomLeft" activeCell="C87" activeCellId="0" sqref="C87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="112.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="55.33"/>
   </cols>
   <sheetData>

--- a/data/Родер - КТК.xlsx
+++ b/data/Родер - КТК.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Название операции</t>
   </si>
   <si>
-    <t xml:space="preserve">ADCM_П/п</t>
+    <t xml:space="preserve">Артикул</t>
   </si>
   <si>
     <t xml:space="preserve">ADCM_ФО_План</t>
@@ -1012,13 +1012,13 @@
   </sheetPr>
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C87" activeCellId="0" sqref="C87"/>
+      <selection pane="bottomLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.33"/>
@@ -1026,13 +1026,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="55.33"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1084,7 +1084,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1104,7 +1104,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1124,7 +1124,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>31</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>39</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
@@ -1450,7 +1450,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
@@ -1470,7 +1470,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>47</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>51</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>55</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>59</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>63</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>66</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
         <v>70</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
         <v>74</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
         <v>78</v>
       </c>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
         <v>81</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
         <v>84</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
         <v>87</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
         <v>91</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
         <v>94</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
         <v>97</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
         <v>101</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
         <v>105</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>109</v>
       </c>
@@ -2032,7 +2032,7 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
         <v>110</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
         <v>114</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
         <v>118</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
         <v>121</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
         <v>124</v>
       </c>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
         <v>126</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
         <v>129</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
         <v>131</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
         <v>135</v>
       </c>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
         <v>138</v>
       </c>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
         <v>140</v>
       </c>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
         <v>142</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
         <v>144</v>
       </c>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="J47" s="6"/>
     </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
         <v>147</v>
       </c>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="J48" s="6"/>
     </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
         <v>149</v>
       </c>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="J49" s="6"/>
     </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
         <v>151</v>
       </c>
@@ -2518,7 +2518,7 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
         <v>152</v>
       </c>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="J51" s="6"/>
     </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
         <v>156</v>
       </c>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="J52" s="6"/>
     </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
         <v>158</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
         <v>161</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
         <v>164</v>
       </c>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
         <v>166</v>
       </c>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="J56" s="6"/>
     </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
         <v>168</v>
       </c>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="J57" s="6"/>
     </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
         <v>170</v>
       </c>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="J58" s="6"/>
     </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
         <v>172</v>
       </c>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="J59" s="6"/>
     </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
         <v>174</v>
       </c>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="J60" s="6"/>
     </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
         <v>176</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
         <v>180</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
         <v>184</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
         <v>188</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
         <v>190</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
         <v>193</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
         <v>195</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
         <v>197</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
         <v>199</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
         <v>203</v>
       </c>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="J70" s="6"/>
     </row>
-    <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
         <v>205</v>
       </c>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="J71" s="6"/>
     </row>
-    <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
         <v>208</v>
       </c>
@@ -3190,7 +3190,7 @@
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
         <v>46</v>
       </c>
@@ -3210,7 +3210,7 @@
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
         <v>209</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
         <v>214</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
         <v>218</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
         <v>221</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
         <v>225</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
         <v>228</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
         <v>231</v>
       </c>
@@ -3398,7 +3398,7 @@
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
     </row>
-    <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
         <v>232</v>
       </c>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="J81" s="6"/>
     </row>
-    <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
         <v>236</v>
       </c>
@@ -3444,7 +3444,7 @@
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
     </row>
-    <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
         <v>237</v>
       </c>
